--- a/data/income_statement/1digit/size/N_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/N_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>N-Administrative and support service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>N-Administrative and support service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1424 +841,1609 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5582716.891139999</v>
+        <v>5634054.46542</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6569383.61665</v>
+        <v>6587710.059459999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>7920795.228589999</v>
+        <v>7976845.745559999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>8935020.24392</v>
+        <v>9061861.17142</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>11374713.0516</v>
+        <v>11554592.27059</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>13586761.31675</v>
+        <v>13826840.39759</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>15515919.80016</v>
+        <v>15995695.07047</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>16780587.89358</v>
+        <v>17232209.4356</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>21085604.0871</v>
+        <v>21903372.33357</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>29357347.68724</v>
+        <v>29963339.77473</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>33748419.05639</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>34878024.03136</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>25662619.618</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4090214.83872</v>
+        <v>4142496.47809</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4846369.160069999</v>
+        <v>4861248.99851</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5735910.41686</v>
+        <v>5781303.549970001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6589527.01922</v>
+        <v>6682267.968419999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>8535864.812910002</v>
+        <v>8710800.845899999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>10287411.60257</v>
+        <v>10468196.12896</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>12125971.68649</v>
+        <v>12526276.37873</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>13319578.9011</v>
+        <v>13699682.17386</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>16034964.93756</v>
+        <v>16682627.48974</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>21332530.62585</v>
+        <v>21810779.07694</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>25264273.94127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>26200159.04808</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>21493906.539</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1324930.70748</v>
+        <v>1324621.26663</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1520325.82371</v>
+        <v>1527828.61314</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1958691.20472</v>
+        <v>1965991.71507</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2114195.38294</v>
+        <v>2145599.55783</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2542443.78025</v>
+        <v>2548292.96841</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2990796.187690001</v>
+        <v>3035624.39896</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3055106.53905</v>
+        <v>3115207.9182</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3072341.31622</v>
+        <v>3110575.30001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>4621789.88802</v>
+        <v>4721044.532610001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>7300403.38826</v>
+        <v>7403558.62452</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>7625732.208589999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>7768656.8086</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3418000.737</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>167571.34494</v>
+        <v>166936.7207</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>202688.63287</v>
+        <v>198632.44781</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>226193.60701</v>
+        <v>229550.48052</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>231297.84176</v>
+        <v>233993.64517</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>296404.45844</v>
+        <v>295498.45628</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>308553.52649</v>
+        <v>323019.86967</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>334841.57462</v>
+        <v>354210.77354</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>388667.67626</v>
+        <v>421951.96173</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>428849.26152</v>
+        <v>499700.31122</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>724413.6731299999</v>
+        <v>749002.0732699999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>858412.9065299999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>909208.1746800001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>750712.3419999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>55647.65443</v>
+        <v>56364.56595999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>60737.66573</v>
+        <v>62605.3625</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>59289.28211</v>
+        <v>57111.10300000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>73936.15442000001</v>
+        <v>73875.78017999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>107574.33821</v>
+        <v>90609.12187000002</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>114707.36974</v>
+        <v>116665.44646</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>124351.6161</v>
+        <v>132232.30829</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>170615.35543</v>
+        <v>188214.13236</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>176013.35439</v>
+        <v>189831.1783</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>378323.2131400001</v>
+        <v>385972.4232899999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>383170.3032399999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>431154.49524</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>477979.884</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>43397.85337999999</v>
+        <v>43037.5249</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>52600.70077</v>
+        <v>54498.46125999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>50570.98092000001</v>
+        <v>48525.82943999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>63394.37729999999</v>
+        <v>63065.88625</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>82239.60872999999</v>
+        <v>82870.07057000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>103923.3078</v>
+        <v>105765.27065</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>113107.70817</v>
+        <v>116557.29444</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>143135.43427</v>
+        <v>156830.68699</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>149616.59356</v>
+        <v>162182.01062</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>337341.9996</v>
+        <v>336893.01605</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>346017.3328200001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>380016.6202299999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>445823.715</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>9566.182119999999</v>
+        <v>10578.46111</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>7368.59893</v>
+        <v>7345.41264</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>6820.354120000001</v>
+        <v>6870.26055</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>8671.15475</v>
+        <v>8927.88125</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>5906.62061</v>
+        <v>5853.557140000001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>8085.850649999999</v>
+        <v>8040.550949999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>7633.10174</v>
+        <v>11913.84702</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>24632.52444</v>
+        <v>28455.98553</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>22848.4187</v>
+        <v>24023.49067</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>35344.83613</v>
+        <v>39290.978</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>24419.32829</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>32782.00615</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>18911.234</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2683.61893</v>
+        <v>2748.57995</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>768.3660299999999</v>
+        <v>761.4885999999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1897.94707</v>
+        <v>1715.01301</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1870.62237</v>
+        <v>1882.01268</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>19428.10886999999</v>
+        <v>1885.49416</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2698.21129</v>
+        <v>2859.62486</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>3610.80619</v>
+        <v>3761.16683</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2847.396720000001</v>
+        <v>2927.45984</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>3548.34213</v>
+        <v>3625.67701</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>5636.37741</v>
+        <v>9788.429239999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>12733.64213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18355.86886</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>13244.935</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5527069.23671</v>
+        <v>5577689.899460001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6508645.950919999</v>
+        <v>6525104.69696</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>7861505.94648</v>
+        <v>7919734.642559999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>8861084.089500003</v>
+        <v>8987985.391239999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>11267138.71339</v>
+        <v>11463983.14872</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>13472053.94701</v>
+        <v>13710174.95113</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>15391568.18406</v>
+        <v>15863462.76218</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>16609972.53815</v>
+        <v>17043995.30324</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>20909590.73271</v>
+        <v>21713541.15527</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>28979024.4741</v>
+        <v>29577367.35144</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>33365248.75315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>34446869.53612</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>25184639.734</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4705675.057399999</v>
+        <v>4737422.649560001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5489702.91462</v>
+        <v>5511691.17842</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6656352.766109999</v>
+        <v>6704843.690389999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>7534327.744440001</v>
+        <v>7636682.765900001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>9559572.382409999</v>
+        <v>9737785.66893</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>11477276.7511</v>
+        <v>11654672.99429</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>13174719.17925</v>
+        <v>13553202.36558</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>14304567.96378</v>
+        <v>14655231.58272</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>18230049.55638</v>
+        <v>18893221.1118</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>25379843.12474</v>
+        <v>25891071.66637</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>29233060.3028</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>30047193.68926</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>21438579.823</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>160681.41158</v>
+        <v>166481.44993</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>139138.97982</v>
+        <v>136226.45842</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>162335.09567</v>
+        <v>161279.22533</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>208375.09351</v>
+        <v>201086.57703</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>254881.6992</v>
+        <v>263076.96</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>240613.33662</v>
+        <v>241669.41239</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>302466.74798</v>
+        <v>316623.28559</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>345889.51494</v>
+        <v>373550.39523</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>468938.14355</v>
+        <v>486822.60698</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>847403.60531</v>
+        <v>825282.5471</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>855523.32819</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>860377.47212</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>993627.379</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>543033.8337499999</v>
+        <v>543336.08386</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>641859.3949500001</v>
+        <v>635133.7006900001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>826212.9873700001</v>
+        <v>821125.40787</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1188599.5628</v>
+        <v>1206270.98053</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1347975.13664</v>
+        <v>1342190.73919</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1749204.109</v>
+        <v>1731945.51689</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2415230.5659</v>
+        <v>2447588.6086</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2925255.64284</v>
+        <v>2998610.00582</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>4620987.23779</v>
+        <v>4758416.11198</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3781374.12093</v>
+        <v>3783647.21806</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>5475927.455999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5546207.16572</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>6813414.533</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>3991924.776739999</v>
+        <v>4016980.75848</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>4698082.14002</v>
+        <v>4729280.41388</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>5646642.57365</v>
+        <v>5701686.01679</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>6110126.104889999</v>
+        <v>6197488.693549999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>7924674.136550001</v>
+        <v>8098395.25659</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>9459401.312179999</v>
+        <v>9655983.191329999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>10391796.03376</v>
+        <v>10726897.40768</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>10780128.42134</v>
+        <v>11022940.98303</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>13042887.69442</v>
+        <v>13543197.87669</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>20569641.1093</v>
+        <v>21094394.5191</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>22695534.1762</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>23400159.69255</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>13183857.936</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>10035.03533</v>
+        <v>10624.35729</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>10622.39983</v>
+        <v>11050.60543</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>21162.10942</v>
+        <v>20753.0404</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>27226.98324</v>
+        <v>31836.51479</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>32041.41002</v>
+        <v>34122.71315</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>28057.9933</v>
+        <v>25074.87368</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>65225.83161</v>
+        <v>62093.06371000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>253294.38466</v>
+        <v>260130.19864</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>97236.48062000002</v>
+        <v>104784.51615</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>181424.2892</v>
+        <v>187747.38211</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>206075.34241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>240449.35887</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>447679.975</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>821394.1793099999</v>
+        <v>840267.2498999999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1018943.0363</v>
+        <v>1013413.51854</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1205153.18037</v>
+        <v>1214890.95217</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1326756.34506</v>
+        <v>1351302.62534</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1707566.33098</v>
+        <v>1726197.47979</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1994777.19591</v>
+        <v>2055501.95684</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2216849.00481</v>
+        <v>2310260.3966</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2305404.57437</v>
+        <v>2388763.72052</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2679541.17633</v>
+        <v>2820320.04347</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3599181.34936</v>
+        <v>3686295.685070001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4132188.45035</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4399675.846860001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3746059.911</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>762106.2483499999</v>
+        <v>738103.2166899999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>889957.4984800001</v>
+        <v>884268.48461</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1032548.53682</v>
+        <v>1023168.70795</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1150807.04752</v>
+        <v>1180968.82415</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1436593.12947</v>
+        <v>1447492.39647</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1720916.26349</v>
+        <v>1743517.14472</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1914348.27332</v>
+        <v>1976371.92584</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2130684.1382</v>
+        <v>2166975.67455</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2314691.20508</v>
+        <v>2409559.92983</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3032520.97654</v>
+        <v>3141671.43316</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3587818.3236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3662104.2397</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3395032.466</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1041.31485</v>
+        <v>995.4669299999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>2422.16157</v>
+        <v>4898.96358</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>3878.36078</v>
+        <v>3852.67678</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1425.8906</v>
+        <v>1370.52099</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>11680.89452</v>
+        <v>11683.58623</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>6389.132699999999</v>
+        <v>6135.528979999998</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>4677.89783</v>
+        <v>4789.14334</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4756.46872</v>
+        <v>4564.717799999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1663.92371</v>
+        <v>1574.08754</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>6240.20206</v>
+        <v>6147.236719999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>7393.444340000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5982.823429999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>13545.475</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>117814.68169</v>
+        <v>116865.85752</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>152941.94106</v>
+        <v>155226.39645</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>182238.05788</v>
+        <v>183471.82634</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>216476.17284</v>
+        <v>231043.24338</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>250969.44133</v>
+        <v>258819.13079</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>291546.36933</v>
+        <v>300990.70212</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>304753.01578</v>
+        <v>327460.36253</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>355222.8014400001</v>
+        <v>360197.26039</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>397693.09091</v>
+        <v>423209.6612800001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>533118.8405899999</v>
+        <v>567880.5434600001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>634006.31126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>648719.8119199999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>575386.928</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>643250.2518099999</v>
+        <v>620241.8922400001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>734593.39585</v>
+        <v>724143.1245800002</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>846432.11816</v>
+        <v>835844.2048299999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>932904.98408</v>
+        <v>948555.05978</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1173942.79362</v>
+        <v>1176989.67945</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1422980.76146</v>
+        <v>1436390.91362</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1604917.35971</v>
+        <v>1644122.41997</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1770704.86804</v>
+        <v>1802213.69636</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1915334.19046</v>
+        <v>1984776.18101</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2493161.93389</v>
+        <v>2567643.652979999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2946418.568</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3007401.60435</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2806100.063</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>59287.93096</v>
+        <v>102164.03321</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>128985.53782</v>
+        <v>129145.03393</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>172604.64355</v>
+        <v>191722.24422</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>175949.29754</v>
+        <v>170333.80119</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>270973.20151</v>
+        <v>278705.08332</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>273860.93242</v>
+        <v>311984.8121200001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>302500.73149</v>
+        <v>333888.4707600001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>174720.43617</v>
+        <v>221788.04597</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>364849.97125</v>
+        <v>410760.1136400001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>566660.3728199999</v>
+        <v>544624.25191</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>544370.1267500001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>737571.6071600001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>351027.445</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>137618.64845</v>
+        <v>267289.09882</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>143505.65054</v>
+        <v>198019.48406</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>166457.95999</v>
+        <v>228604.6511</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>147597.39401</v>
+        <v>218407.31588</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>250974.71804</v>
+        <v>378487.6838100001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>249878.99327</v>
+        <v>326863.9386899999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>391241.59094</v>
+        <v>474699.4247100001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>356738.0539000001</v>
+        <v>497570.0209899999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>394723.71675</v>
+        <v>556340.7836500001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1779697.30769</v>
+        <v>2252862.65563</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1154834.4168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3078234.92859</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2119885.035</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>4910.82699</v>
+        <v>26449.77074000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>3422.51192</v>
+        <v>9277.362230000001</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2815.70648</v>
+        <v>4711.645769999999</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>7252.19238</v>
+        <v>3547.4469</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>4138.11501</v>
+        <v>9737.46852</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>7534.53555</v>
+        <v>12289.20107</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>7724.958799999999</v>
+        <v>13547.59993</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>10601.42176</v>
+        <v>20030.0078</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3225.28549</v>
+        <v>25649.98229</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>17454.59463</v>
+        <v>21393.21182</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>16438.80112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>27366.9893</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>24788.369</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>2176.11551</v>
+        <v>15061.65461</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>3194.24915</v>
+        <v>12419.18255</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1430.99087</v>
+        <v>10459.31405</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>876.58428</v>
+        <v>11065.4295</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1914.95915</v>
+        <v>9340.33418</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>3974.86627</v>
+        <v>5690.114130000001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>4649.73344</v>
+        <v>3779.935709999999</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>4291.30279</v>
+        <v>26167.68363</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>5031.39813</v>
+        <v>8918.24559</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>12214.64405</v>
+        <v>8244.38357</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>13964.63988</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>1782973.86679</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>35840.735</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>14885.83783</v>
+        <v>28883.08977</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>13141.43639</v>
+        <v>19491.43331</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>12549.50485</v>
+        <v>20443.1451</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>17657.79858</v>
+        <v>25939.87494</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>20251.29404</v>
+        <v>32682.75022</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>25280.16962</v>
+        <v>27785.38884</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>26158.75262</v>
+        <v>36410.00862</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>27140.88723</v>
+        <v>38380.79716</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>40257.17996</v>
+        <v>64299.03655999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>99251.65518999999</v>
+        <v>105906.64708</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>113452.73972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>124010.3035</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>138836.554</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>11611.07395</v>
+        <v>11588.63269</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>12760.85775</v>
+        <v>12280.48092</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>12588.37629</v>
+        <v>11974.33916</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>10768.06332</v>
+        <v>11222.09325</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>12556.86024</v>
+        <v>13446.66714</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>17298.8637</v>
+        <v>14998.38669</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>18350.08915</v>
+        <v>14783.22596</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>20058.22499</v>
+        <v>15918.424</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>18727.77156</v>
+        <v>11953.45233</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>37659.13794000001</v>
+        <v>32052.38678</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>40700.62745</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>40859.94300000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>10431.899</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1951.1358</v>
+        <v>1964.18273</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2441.42133</v>
+        <v>2284.00537</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1948.95686</v>
+        <v>2491.5504</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1305.43512</v>
+        <v>3693.55518</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2093.91981</v>
+        <v>2777.69198</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2817.07366</v>
+        <v>3038.02264</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2741.427099999999</v>
+        <v>4613.5583</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3074.73552</v>
+        <v>4054.95429</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>5922.758819999999</v>
+        <v>4437.72804</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>6707.646699999999</v>
+        <v>8141.37</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>25795.00813</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>28510.42114000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>11159.447</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1882.67424</v>
+        <v>880.8599399999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1564.74739</v>
+        <v>1313.18231</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1396.58499</v>
+        <v>1254.75363</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>3265.8145</v>
+        <v>2212.71055</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2310.2929</v>
+        <v>18957.22476</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>4375.415650000001</v>
+        <v>21738.34459</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>3406.881739999999</v>
+        <v>13700.64821</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2762.74056</v>
+        <v>9746.644629999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>3860.31581</v>
+        <v>13876.62935</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>13448.14182</v>
+        <v>45640.80686</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>13637.72506</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>15533.58593</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>32612.609</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>63852.22599</v>
+        <v>119391.09112</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>73707.08100000001</v>
+        <v>112497.50669</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>101041.24115</v>
+        <v>149073.94755</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>67844.35898999999</v>
+        <v>109372.71424</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>149125.96342</v>
+        <v>218033.87149</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>112152.39192</v>
+        <v>161635.81533</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>238615.1399</v>
+        <v>283903.40597</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>189342.51585</v>
+        <v>288764.53833</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>214064.4993</v>
+        <v>314683.50503</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1258943.0157</v>
+        <v>1653931.46775</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>529940.0051399999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>652263.79817</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1349647.178</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>447.61064</v>
+        <v>266.60411</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>771.7075500000001</v>
+        <v>598.669</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>406.08724</v>
+        <v>54.10106</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>347.52797</v>
+        <v>7.89467</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>404.33586</v>
+        <v>71.04078999999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>433.82375</v>
+        <v>428.91434</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>679.89117</v>
+        <v>379.42362</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>947.79062</v>
+        <v>955.0351899999999</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>55.99867</v>
+        <v>120.36117</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>3798.61741</v>
+        <v>1991.13356</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>3187.31123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>3181.95082</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1028.673</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>86.39475000000002</v>
+        <v>64.6943</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>347.7805300000001</v>
+        <v>305.0009</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>148.08135</v>
+        <v>141.13944</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>137.61892</v>
+        <v>139.3524</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>3944.523</v>
+        <v>3920.62885</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>330.73851</v>
+        <v>263.1389</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>224.61849</v>
+        <v>30.42599</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>125.19823</v>
+        <v>25.68956</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>98.30195999999999</v>
+        <v>52.77762999999999</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>563.13785</v>
+        <v>556.70397</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>166.80801</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>162.56331</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>172.215</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>35814.75275000001</v>
+        <v>62738.51880999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>32153.85753</v>
+        <v>27552.66078</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>32132.42991</v>
+        <v>28000.71494</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>38141.99995</v>
+        <v>51206.24425</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>54234.45460999999</v>
+        <v>69520.00588000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>75681.11464000001</v>
+        <v>78996.61216</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>88690.09852999999</v>
+        <v>103551.1924</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>98393.23635000001</v>
+        <v>93526.24639999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>103480.20705</v>
+        <v>112349.06566</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>329656.7164</v>
+        <v>375004.5442400001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>397550.75106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>403371.50663</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>515367.356</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>90526.81617999999</v>
+        <v>151667.83043</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>94022.04210000001</v>
+        <v>123219.7852</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>126991.96936</v>
+        <v>184784.24897</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>105351.58707</v>
+        <v>141966.17733</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>177301.58722</v>
+        <v>285316.3542499999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>156519.87887</v>
+        <v>222989.35844</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>332414.68797</v>
+        <v>366239.54508</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>234219.92523</v>
+        <v>345403.1609899999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>264133.7944600001</v>
+        <v>428571.63882</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1585330.88524</v>
+        <v>1948957.64494</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1029164.3495</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1144436.66204</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1633677.37</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6891.748370000001</v>
+        <v>7462.499339999998</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>8566.19623</v>
+        <v>8571.33382</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>12743.09308</v>
+        <v>12964.0429</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>16580.34329</v>
+        <v>15974.84199</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>10421.08598</v>
+        <v>10507.3607</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>10532.33916</v>
+        <v>9266.457149999998</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>14222.82145</v>
+        <v>11020.04366</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>16284.49989</v>
+        <v>12484.45641</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>15431.14189</v>
+        <v>13277.77909</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>74725.40470999999</v>
+        <v>73535.29235999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>27082.71958</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>36805.49723</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>19278.522</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>12091.1078</v>
+        <v>12750.34883</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>6861.064439999999</v>
+        <v>6564.75821</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>5580.321130000001</v>
+        <v>6017.13486</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6770.070110000001</v>
+        <v>9388.181010000002</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>9994.284790000002</v>
+        <v>13461.80365</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>10963.50804</v>
+        <v>11849.4464</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>65019.18894</v>
+        <v>18089.39543</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>9452.898140000001</v>
+        <v>15257.38298</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>13435.65134</v>
+        <v>25621.63666</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>40565.51753</v>
+        <v>46943.1037</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>225050.43119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>237942.52239</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>44308.921</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1515.12604</v>
+        <v>856.4322400000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>546.32709</v>
+        <v>523.2145599999999</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>3441.01387</v>
+        <v>2943.23043</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>497.53684</v>
+        <v>1937.6851</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>765.83942</v>
+        <v>16822.63505</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>450.47723</v>
+        <v>1322.7178</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>182.89709</v>
+        <v>170.56733</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>461.75355</v>
+        <v>1126.58549</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>751.0057100000001</v>
+        <v>8893.080989999997</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>957.7000199999998</v>
+        <v>18515.1412</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>5506.832230000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>20771.1428</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2653.633</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>61190.28207</v>
+        <v>112213.4504</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>68250.08981</v>
+        <v>96401.27511</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>89407.19014000001</v>
+        <v>146678.15869</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>69444.65721999998</v>
+        <v>97584.86925999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>137329.70259</v>
+        <v>198202.17362</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>112141.1307</v>
+        <v>172854.67785</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>221107.88811</v>
+        <v>302700.08346</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>172430.90492</v>
+        <v>282137.76021</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>198435.99604</v>
+        <v>345527.00531</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1294397.60004</v>
+        <v>1632443.55302</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>516408.42774</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>611910.9970099998</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1322862.818</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>33.32474</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>49.86927</v>
+        <v>175.03394</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0.5887100000000001</v>
@@ -2366,52 +2452,57 @@
         <v>19.09223</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>33.66287999999999</v>
+        <v>8.43107</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>636.09216</v>
+        <v>636.0921599999999</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>749.1917099999999</v>
+        <v>729.3203699999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1357.90831</v>
+        <v>1306.62014</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>453.63216</v>
+        <v>581.79426</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>1950.63052</v>
+        <v>1876.20666</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>1489.99899</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>1489.71457</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>383.553</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>25.77057</v>
+        <v>21.43542</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>42.56826</v>
+        <v>37.19558</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>51.51564</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>7.73499</v>
+        <v>0</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>33.99322</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>214.51543</v>
+        <v>181.04451</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>5.14073</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>47.03601</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>64.19414</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>8779.45659</v>
+        <v>18330.33946</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>9705.927</v>
+        <v>10946.97398</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>15768.24679</v>
+        <v>16129.57774</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>12032.15239</v>
+        <v>17061.50774</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>18723.01834</v>
+        <v>46279.95694</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>21581.81615</v>
+        <v>26878.92257</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>31127.55994</v>
+        <v>33530.13483</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>34184.92441</v>
+        <v>33043.31975</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>35626.07007</v>
+        <v>34670.04525999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>172491.00566</v>
+        <v>175401.32124</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>253561.74563</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>235452.5939</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>244189.919</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>59226.86836000001</v>
+        <v>83888.73720999998</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>57604.08907</v>
+        <v>72290.0475</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>64902.12483</v>
+        <v>71953.75128</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>81168.58981999999</v>
+        <v>106165.60185</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>116160.10648</v>
+        <v>166057.91933</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>136783.15476</v>
+        <v>174177.35383</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>176038.66714</v>
+        <v>219518.23251</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>206750.00722</v>
+        <v>287876.76132</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>241029.49056</v>
+        <v>324184.2728100001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>533570.12278</v>
+        <v>754799.3872699999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>638930.04638</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>762029.7058699998</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>690151.004</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>56368.86340000001</v>
+        <v>71631.38297999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>55223.26675</v>
+        <v>56908.18979</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>60422.87262</v>
+        <v>68288.22248000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>76651.14787</v>
+        <v>90886.80918</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>107790.29635</v>
+        <v>133099.25915</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>128425.6826</v>
+        <v>162108.62995</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>164522.92922</v>
+        <v>206290.41637</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>194567.59926</v>
+        <v>239567.75139</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>229674.60875</v>
+        <v>306747.7717</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>504147.72827</v>
+        <v>583253.3026800001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>612948.54969</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>690208.5739</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>593234.204</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2858.00496</v>
+        <v>12257.35423</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2380.82232</v>
+        <v>15381.85771</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>4479.25221</v>
+        <v>3665.5288</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>4517.441949999999</v>
+        <v>15278.79267</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>8369.81013</v>
+        <v>32958.66018</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>8357.472159999999</v>
+        <v>12068.72388</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>11515.73792</v>
+        <v>13227.81614</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>12182.40796</v>
+        <v>48309.00992999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>11354.88181</v>
+        <v>17436.50111</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>29422.39451</v>
+        <v>171546.08459</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>25981.49669</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>71821.13197</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>96916.8</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>47152.89487</v>
+        <v>133896.56439</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>120865.05719</v>
+        <v>131654.68529</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>147168.50935</v>
+        <v>163588.89507</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>137026.51466</v>
+        <v>140609.33789</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>228486.22585</v>
+        <v>205818.49355</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>230436.89206</v>
+        <v>241682.03854</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>185288.96732</v>
+        <v>222830.11788</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>90488.55761999999</v>
+        <v>86078.14464999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>254410.40298</v>
+        <v>214344.98566</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>227456.67249</v>
+        <v>93729.87533000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>31110.14767000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1909340.16784</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>147084.106</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>43578.21691999999</v>
+        <v>56671.24675000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>58188.26104</v>
+        <v>48930.01207</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>63276.10304</v>
+        <v>142573.71385</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>74522.36786000001</v>
+        <v>82288.98780999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>99406.01850000001</v>
+        <v>118455.41743</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>139802.02668</v>
+        <v>158919.70094</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>157146.83501</v>
+        <v>176313.08873</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>184846.05561</v>
+        <v>214433.4692699999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>191604.53021</v>
+        <v>226251.67005</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>322009.5179</v>
+        <v>332529.34174</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>401067.67206</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>587851.8427</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>561980.9350000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>1811.86291</v>
+        <v>2022.23064</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>799.3234500000001</v>
+        <v>678.8807800000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1842.85859</v>
+        <v>2416.13989</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>872.50841</v>
+        <v>737.01096</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>2214.96893</v>
+        <v>1601.23383</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>749.21887</v>
+        <v>729.00308</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>4299.938700000001</v>
+        <v>4433.23642</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3108.56114</v>
+        <v>3402.56078</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>6565.812690000001</v>
+        <v>4549.965439999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>16146.91726</v>
+        <v>17450.36534</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>7399.647039999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>7640.540950000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4380.179</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>41766.35401</v>
+        <v>54649.01611</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>57388.93758999999</v>
+        <v>48251.13129</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>61433.24445000001</v>
+        <v>140157.57396</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>73649.85945</v>
+        <v>81551.97685000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>97191.04957</v>
+        <v>116854.1836</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>139052.80781</v>
+        <v>158190.69786</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>152846.89631</v>
+        <v>171879.85231</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>181737.49447</v>
+        <v>211030.90849</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>185038.71752</v>
+        <v>221701.70461</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>305862.60064</v>
+        <v>315078.9764</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>393668.0250199999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>580211.30175</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>557600.7560000001</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>45626.64114</v>
+        <v>55227.29426</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>58669.68079000001</v>
+        <v>44807.72388</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>306092.41627</v>
+        <v>255903.18209</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>64981.27905999999</v>
+        <v>66906.11391</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>84924.81984</v>
+        <v>82470.15866</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>235136.77376</v>
+        <v>224693.76884</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>132487.10362</v>
+        <v>137045.81624</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>292584.18372</v>
+        <v>296992.2384799999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>396553.3632</v>
+        <v>254842.01499</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>423416.9569700001</v>
+        <v>443300.20465</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>332977.86914</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>388953.8816500001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>276314.69</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>466.9353600000001</v>
+        <v>478.5296499999999</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>490.1805000000001</v>
+        <v>368.65335</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1285.77006</v>
+        <v>262.14902</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1109.81061</v>
+        <v>2432.91153</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>632.0306800000001</v>
+        <v>1230.86916</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>793.0023299999999</v>
+        <v>584.7064399999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1759.77911</v>
+        <v>1171.00324</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2608.94903</v>
+        <v>1604.67021</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>838.7587500000001</v>
+        <v>1822.46862</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1664.04075</v>
+        <v>915.0041</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>4501.57305</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4309.78753</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3961.194</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3607.66871</v>
+        <v>3818.78874</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3512.582750000001</v>
+        <v>3294.28012</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>5246.25789</v>
+        <v>3041.12401</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>5379.203939999999</v>
+        <v>5088.24363</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2778.99092</v>
+        <v>3236.33628</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>14954.64167</v>
+        <v>13670.56513</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>6050.18983</v>
+        <v>5011.274429999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5562.510800000001</v>
+        <v>7529.369650000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>100839.53558</v>
+        <v>5187.279519999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>33026.13405</v>
+        <v>27431.72128</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>18889.91829</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>14321.52537</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>26543.305</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>41552.03707000001</v>
+        <v>50929.97587</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>54666.91754</v>
+        <v>41144.79041</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>299560.38832</v>
+        <v>252599.90906</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>58492.26450999999</v>
+        <v>59384.95875</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>81513.79824</v>
+        <v>78002.95322</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>219389.12976</v>
+        <v>210438.49727</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>124677.13468</v>
+        <v>130863.53857</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>284412.72389</v>
+        <v>287858.19862</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>294875.06887</v>
+        <v>247832.26685</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>388726.78217</v>
+        <v>414953.47927</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>309586.3778</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>370322.56875</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>245810.191</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>45104.47065</v>
+        <v>135340.51688</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>120383.63744</v>
+        <v>135776.97348</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-95647.80388000001</v>
+        <v>50259.42683</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>146567.60346</v>
+        <v>155992.21179</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>242967.42451</v>
+        <v>241803.75232</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>135102.14498</v>
+        <v>175907.97064</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>209948.69871</v>
+        <v>262097.39037</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-17249.57048999998</v>
+        <v>3519.375440000013</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>49461.56999</v>
+        <v>185754.64072</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>126049.23342</v>
+        <v>-17040.98758000003</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>99199.95059000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2108238.12889</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>432750.351</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>36600.98007</v>
+        <v>37356.48749</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>42164.80611</v>
+        <v>42428.83567</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>50714.37082</v>
+        <v>56975.27609000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>54274.20696</v>
+        <v>55503.07367999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>78906.77695999999</v>
+        <v>78791.85223</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>88859.22391</v>
+        <v>88001.52584999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>94467.20266</v>
+        <v>106592.39049</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>93577.31411000001</v>
+        <v>97234.75641999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>110830.23916</v>
+        <v>115158.01064</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>185100.74532</v>
+        <v>191793.66724</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>230464.83964</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>227391.02402</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>226929.779</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>8503.490580000002</v>
+        <v>97984.02938999998</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>78218.83133</v>
+        <v>93348.13780999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-146362.1747</v>
+        <v>-6715.849260000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>92293.39649999999</v>
+        <v>100489.13811</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>164060.64755</v>
+        <v>163011.90009</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>46242.92107</v>
+        <v>87906.44478999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>115481.49605</v>
+        <v>155504.99988</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-110826.8846</v>
+        <v>-93715.38097999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-61368.66917000002</v>
+        <v>70596.63008</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-59051.51189999996</v>
+        <v>-208834.6548200001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-131264.88905</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1880847.10487</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>205820.572</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3515</v>
+        <v>3046</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3880</v>
+        <v>3288</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4222</v>
+        <v>3586</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4505</v>
+        <v>3840</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>5044</v>
+        <v>4196</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5733</v>
+        <v>4744</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6462</v>
+        <v>5345</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>6875</v>
+        <v>5498</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>7691</v>
+        <v>6199</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>6219</v>
+        <v>5466</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>6319</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5296</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>